--- a/Tools/bin/GeneratorCSV/xls_config/ActivityConfig.xlsx
+++ b/Tools/bin/GeneratorCSV/xls_config/ActivityConfig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="77">
   <si>
     <t>活动id</t>
   </si>
@@ -193,6 +193,63 @@
   <si>
     <t>false</t>
     <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012.11.3,run</t>
+  </si>
+  <si>
+    <t>2012.11.4,run</t>
+  </si>
+  <si>
+    <t>2012.11.5,run</t>
+  </si>
+  <si>
+    <t>2012.11.6,run</t>
+  </si>
+  <si>
+    <t>2012.11.7,run</t>
+  </si>
+  <si>
+    <t>2012.11.8,run</t>
+  </si>
+  <si>
+    <t>2012.11.9,run</t>
+  </si>
+  <si>
+    <t>2012.11.10,run</t>
+  </si>
+  <si>
+    <t>2012.11.11,run</t>
+  </si>
+  <si>
+    <t>2012.11.12,run</t>
+  </si>
+  <si>
+    <t>2012.11.13,run</t>
+  </si>
+  <si>
+    <t>2012.11.14,run</t>
+  </si>
+  <si>
+    <t>2012.11.15,run</t>
+  </si>
+  <si>
+    <t>2012.11.16,run</t>
+  </si>
+  <si>
+    <t>2012.11.3,dragon</t>
+  </si>
+  <si>
+    <t>2012.11.4,dragon</t>
+  </si>
+  <si>
+    <t>2012.11.5,dragon</t>
+  </si>
+  <si>
+    <t>2012.11.6,dragon</t>
+  </si>
+  <si>
+    <t>2012.11.7,dragon</t>
   </si>
 </sst>
 </file>
@@ -1095,8 +1152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.75" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1363,7 +1420,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -1379,11 +1436,15 @@
       <c r="E6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="G6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="I6" s="7">
         <v>1</v>
       </c>
@@ -1409,7 +1470,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -1425,11 +1486,15 @@
       <c r="E7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="G7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="5"/>
+      <c r="H7" s="5" t="s">
+        <v>73</v>
+      </c>
       <c r="I7" s="7">
         <v>1</v>
       </c>
@@ -1455,7 +1520,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -1471,11 +1536,15 @@
       <c r="E8" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="G8" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="5"/>
+      <c r="H8" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="I8" s="7">
         <v>1</v>
       </c>
@@ -1501,7 +1570,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -1517,11 +1586,15 @@
       <c r="E9" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="G9" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="5"/>
+      <c r="H9" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="I9" s="7">
         <v>1</v>
       </c>
@@ -1547,7 +1620,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -1563,11 +1636,15 @@
       <c r="E10" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="G10" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="5"/>
+      <c r="H10" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="I10" s="7">
         <v>1</v>
       </c>
@@ -1609,13 +1686,13 @@
       <c r="E11" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="G11" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>55</v>
-      </c>
+      <c r="H11" s="5"/>
       <c r="I11" s="7">
         <v>1</v>
       </c>
@@ -1657,7 +1734,9 @@
       <c r="E12" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="G12" s="6" t="s">
         <v>57</v>
       </c>
@@ -1703,7 +1782,9 @@
       <c r="E13" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="G13" s="6" t="s">
         <v>57</v>
       </c>
@@ -1749,7 +1830,9 @@
       <c r="E14" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="5"/>
+      <c r="F14" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="G14" s="6" t="s">
         <v>57</v>
       </c>
@@ -1795,7 +1878,9 @@
       <c r="E15" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G15" s="6" t="s">
         <v>57</v>
       </c>
@@ -1841,7 +1926,9 @@
       <c r="E16" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="G16" s="6" t="s">
         <v>57</v>
       </c>
@@ -1887,7 +1974,9 @@
       <c r="E17" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F17" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="G17" s="6" t="s">
         <v>57</v>
       </c>
@@ -1933,7 +2022,9 @@
       <c r="E18" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F18" s="5"/>
+      <c r="F18" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="G18" s="6" t="s">
         <v>57</v>
       </c>
@@ -1966,6 +2057,9 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="F19" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
